--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>679519.3690343238</v>
+        <v>605444.6311123327</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10468138.69511657</v>
+        <v>10437682.31011329</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11051580.61826448</v>
+        <v>11023074.59807983</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7596232.808934004</v>
+        <v>7610915.99552803</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>216.0383093668778</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.6729560199217</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.39872983557737</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>177.575802672723</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0570549497589</v>
+        <v>251.0552703882194</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.4133481546764</v>
+        <v>135.4014128471632</v>
       </c>
       <c r="H12" t="n">
-        <v>93.5940751277577</v>
+        <v>93.47880518414397</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.53032196995866</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>135.6094352333961</v>
       </c>
       <c r="T12" t="n">
-        <v>171.2460141568696</v>
+        <v>192.3366854209288</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8143972777818</v>
+        <v>225.8136120601822</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>98.98140038843044</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.43336661064016</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3727905002829</v>
+        <v>166.3627843393969</v>
       </c>
       <c r="H13" t="n">
-        <v>147.8400024774763</v>
+        <v>101.5901332028</v>
       </c>
       <c r="I13" t="n">
-        <v>106.7871227195706</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>104.0838226109871</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.6415993865938</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2307645096813</v>
+        <v>286.2302187190875</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>77.22685336346352</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6952630391652</v>
+        <v>411.6729560199217</v>
       </c>
       <c r="H14" t="n">
-        <v>302.5297541387407</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.90978669447334</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.4133481546764</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>93.5940751277577</v>
+        <v>76.16663525881798</v>
       </c>
       <c r="I15" t="n">
-        <v>22.9412525137224</v>
+        <v>22.53032196995866</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>135.8311283356686</v>
+        <v>135.6094352333961</v>
       </c>
       <c r="T15" t="n">
-        <v>192.3847930858612</v>
+        <v>192.3366854209288</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8143972777818</v>
+        <v>225.8136120601822</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>25.86182542509536</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>56.01664877393797</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>142.833718070955</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2307645096813</v>
+        <v>286.2302187190875</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6952630391652</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>302.5297541387407</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.39872983557731</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>126.8147449650818</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>325.3265240646891</v>
+        <v>130.7126707701294</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.4133481546764</v>
+        <v>5.218152044632677</v>
       </c>
       <c r="H18" t="n">
-        <v>93.59407512775769</v>
+        <v>93.47880518414397</v>
       </c>
       <c r="I18" t="n">
-        <v>22.94125251372239</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>135.8311283356686</v>
+        <v>135.6094352333961</v>
       </c>
       <c r="T18" t="n">
-        <v>192.3847930858612</v>
+        <v>192.3366854209288</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8143972777818</v>
+        <v>225.8136120601822</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>25.77153599892173</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>94.55194005093317</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.8400024774763</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>19.64706700296336</v>
+        <v>220.9887561650171</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2302187190875</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>55.92375172599059</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6952630391652</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>302.5297541387407</v>
+        <v>200.0670309423628</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>70.538738476194</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>126.3064237640716</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>207.206481068835</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0552703882194</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>72.03751601777431</v>
+        <v>135.4014128471632</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>135.8311283356686</v>
+        <v>135.6094352333961</v>
       </c>
       <c r="T21" t="n">
-        <v>192.3847930858612</v>
+        <v>192.3366854209288</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8143972777818</v>
+        <v>189.1091564417957</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>56.01664877393865</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>94.55194005093294</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.9887561650171</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2307645096813</v>
+        <v>286.2302187190875</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>52.88309206631064</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>21.09877532957692</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>192.0665623188214</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092030868075</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>142.8831105359097</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>103.258801432719</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2560,10 +2560,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>73.09793466719498</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>245.3924319518751</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,7 +2651,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H27" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269653</v>
       </c>
       <c r="I27" t="n">
         <v>20.22295923705013</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T27" t="n">
         <v>192.0665623188214</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>103.258801432719</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>21.302551757774</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,13 +2794,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>146.9246168289002</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>282.2679456801614</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,7 +2888,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H30" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269653</v>
       </c>
       <c r="I30" t="n">
         <v>20.22295923705013</v>
@@ -2970,7 +2970,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>181.7169476666274</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>103.1972582386974</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>176.1183281552078</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3116,7 +3116,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>202.3102366922564</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.781160222249139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>27.27849908887692</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.045250128462</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>72.43579197616269</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3356,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>135.3343964518635</v>
@@ -3365,7 +3365,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705013</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
-        <v>122.6942204073862</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I37" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>220.7486959972119</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>171.4227093243873</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>48.52529342554006</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>23.47240143010579</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883158</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838592</v>
       </c>
       <c r="T39" t="n">
         <v>192.0665623188214</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>90.69811547110089</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>142.8412861002821</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>23.47240143010601</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>16.82242126556743</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H42" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269653</v>
       </c>
       <c r="I42" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>79.41653965146601</v>
       </c>
       <c r="C43" t="n">
-        <v>104.1527721870139</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>347.047769772833</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>43.78533706646139</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>15.3676042856634</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>134.3059964600186</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>505.5565042783743</v>
+        <v>1451.495697113925</v>
       </c>
       <c r="C11" t="n">
-        <v>505.5565042783743</v>
+        <v>1451.495697113925</v>
       </c>
       <c r="D11" t="n">
-        <v>505.5565042783743</v>
+        <v>1093.229998507175</v>
       </c>
       <c r="E11" t="n">
-        <v>119.7682516801301</v>
+        <v>875.0094839951772</v>
       </c>
       <c r="F11" t="n">
-        <v>119.7682516801301</v>
+        <v>464.0235792055697</v>
       </c>
       <c r="G11" t="n">
-        <v>119.7682516801301</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="H11" t="n">
-        <v>119.7682516801301</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="I11" t="n">
-        <v>47.64832255328425</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="J11" t="n">
-        <v>171.5309650086644</v>
+        <v>173.9493005247274</v>
       </c>
       <c r="K11" t="n">
-        <v>407.9374510330599</v>
+        <v>413.1649476832218</v>
       </c>
       <c r="L11" t="n">
-        <v>738.1223632957222</v>
+        <v>746.8348727357534</v>
       </c>
       <c r="M11" t="n">
-        <v>1137.186135453581</v>
+        <v>1149.776393112417</v>
       </c>
       <c r="N11" t="n">
-        <v>1547.320985032115</v>
+        <v>1563.851736929998</v>
       </c>
       <c r="O11" t="n">
-        <v>1921.264432186583</v>
+        <v>1941.516081055137</v>
       </c>
       <c r="P11" t="n">
-        <v>2205.915511986554</v>
+        <v>2229.342860333581</v>
       </c>
       <c r="Q11" t="n">
-        <v>2371.503871734572</v>
+        <v>2397.316038134682</v>
       </c>
       <c r="R11" t="n">
-        <v>2382.416127664212</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="S11" t="n">
-        <v>2382.416127664212</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="T11" t="n">
-        <v>2203.046630014997</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="U11" t="n">
-        <v>1949.453645217261</v>
+        <v>2156.024342718576</v>
       </c>
       <c r="V11" t="n">
-        <v>1618.39075787369</v>
+        <v>1824.961455375005</v>
       </c>
       <c r="W11" t="n">
-        <v>1265.622102603576</v>
+        <v>1824.961455375005</v>
       </c>
       <c r="X11" t="n">
-        <v>892.1563443424961</v>
+        <v>1451.495697113925</v>
       </c>
       <c r="Y11" t="n">
-        <v>892.1563443424961</v>
+        <v>1451.495697113925</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>908.1284040524494</v>
+        <v>931.3018028248458</v>
       </c>
       <c r="C12" t="n">
-        <v>733.6753747713224</v>
+        <v>756.8487735437188</v>
       </c>
       <c r="D12" t="n">
-        <v>584.7409651100711</v>
+        <v>607.9143638824676</v>
       </c>
       <c r="E12" t="n">
-        <v>425.5035101046155</v>
+        <v>448.6769088770121</v>
       </c>
       <c r="F12" t="n">
-        <v>278.9689521315005</v>
+        <v>302.1423509038971</v>
       </c>
       <c r="G12" t="n">
-        <v>142.1877923793022</v>
+        <v>165.3732470178736</v>
       </c>
       <c r="H12" t="n">
-        <v>47.64832255328425</v>
+        <v>70.9502114783342</v>
       </c>
       <c r="I12" t="n">
-        <v>47.64832255328425</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="J12" t="n">
-        <v>102.614128761653</v>
+        <v>229.1045902665353</v>
       </c>
       <c r="K12" t="n">
-        <v>274.7142711214838</v>
+        <v>547.2146779006082</v>
       </c>
       <c r="L12" t="n">
-        <v>864.3622627183763</v>
+        <v>827.5126639547919</v>
       </c>
       <c r="M12" t="n">
-        <v>1207.819766446077</v>
+        <v>1173.964061050404</v>
       </c>
       <c r="N12" t="n">
-        <v>1574.7762132235</v>
+        <v>1543.993640644578</v>
       </c>
       <c r="O12" t="n">
-        <v>1888.249876065159</v>
+        <v>1860.278619628336</v>
       </c>
       <c r="P12" t="n">
-        <v>2120.507060578607</v>
+        <v>2094.792133195828</v>
       </c>
       <c r="Q12" t="n">
-        <v>2382.416127664212</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="R12" t="n">
-        <v>2382.416127664212</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="S12" t="n">
-        <v>2382.416127664212</v>
+        <v>2272.636297420418</v>
       </c>
       <c r="T12" t="n">
-        <v>2209.440355788586</v>
+        <v>2078.356817197257</v>
       </c>
       <c r="U12" t="n">
-        <v>1981.345005002948</v>
+        <v>1850.262259560709</v>
       </c>
       <c r="V12" t="n">
-        <v>1746.192896771206</v>
+        <v>1615.110151328967</v>
       </c>
       <c r="W12" t="n">
-        <v>1491.955540043004</v>
+        <v>1515.1289388154</v>
       </c>
       <c r="X12" t="n">
-        <v>1284.104039837471</v>
+        <v>1307.277438609868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.343741072517</v>
+        <v>1099.517139844914</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>472.9007626515971</v>
+        <v>468.9684625797995</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9007626515971</v>
+        <v>468.9684625797995</v>
       </c>
       <c r="D13" t="n">
-        <v>472.9007626515971</v>
+        <v>318.8518231674637</v>
       </c>
       <c r="E13" t="n">
-        <v>472.9007626515971</v>
+        <v>318.8518231674637</v>
       </c>
       <c r="F13" t="n">
-        <v>472.9007626515971</v>
+        <v>318.8518231674637</v>
       </c>
       <c r="G13" t="n">
-        <v>304.8474389139376</v>
+        <v>150.8086066630224</v>
       </c>
       <c r="H13" t="n">
-        <v>155.514103078103</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="I13" t="n">
-        <v>47.64832255328425</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="J13" t="n">
-        <v>68.48462698807906</v>
+        <v>69.72897615227015</v>
       </c>
       <c r="K13" t="n">
-        <v>232.561912547839</v>
+        <v>234.9571703371436</v>
       </c>
       <c r="L13" t="n">
-        <v>498.0507828350197</v>
+        <v>501.9188074204986</v>
       </c>
       <c r="M13" t="n">
-        <v>788.3606953609744</v>
+        <v>793.7815460358768</v>
       </c>
       <c r="N13" t="n">
-        <v>1077.202303463475</v>
+        <v>1084.139057494131</v>
       </c>
       <c r="O13" t="n">
-        <v>1327.977983400634</v>
+        <v>1336.314919536398</v>
       </c>
       <c r="P13" t="n">
-        <v>1519.03921819542</v>
+        <v>1528.574252011035</v>
       </c>
       <c r="Q13" t="n">
-        <v>1567.885033530161</v>
+        <v>1578.249568077069</v>
       </c>
       <c r="R13" t="n">
-        <v>1567.885033530161</v>
+        <v>1473.114393722537</v>
       </c>
       <c r="S13" t="n">
-        <v>1567.885033530161</v>
+        <v>1275.496616564361</v>
       </c>
       <c r="T13" t="n">
-        <v>1567.885033530161</v>
+        <v>1275.496616564361</v>
       </c>
       <c r="U13" t="n">
-        <v>1278.763049176947</v>
+        <v>986.3751835147775</v>
       </c>
       <c r="V13" t="n">
-        <v>1024.07856097106</v>
+        <v>986.3751835147775</v>
       </c>
       <c r="W13" t="n">
-        <v>734.6613909340995</v>
+        <v>696.9580134778168</v>
       </c>
       <c r="X13" t="n">
-        <v>506.6718400360821</v>
+        <v>468.9684625797995</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.6718400360821</v>
+        <v>468.9684625797995</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1565.86189123195</v>
+        <v>1296.781271333583</v>
       </c>
       <c r="C14" t="n">
-        <v>1565.86189123195</v>
+        <v>927.818754393171</v>
       </c>
       <c r="D14" t="n">
-        <v>1565.86189123195</v>
+        <v>927.818754393171</v>
       </c>
       <c r="E14" t="n">
-        <v>1180.073638633706</v>
+        <v>542.0305017949267</v>
       </c>
       <c r="F14" t="n">
-        <v>769.0877338440985</v>
+        <v>464.0235792055697</v>
       </c>
       <c r="G14" t="n">
-        <v>353.2339327944366</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="H14" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="I14" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="J14" t="n">
-        <v>171.5309650086645</v>
+        <v>173.9493005247277</v>
       </c>
       <c r="K14" t="n">
-        <v>407.93745103306</v>
+        <v>413.1649476832222</v>
       </c>
       <c r="L14" t="n">
-        <v>738.1223632957224</v>
+        <v>746.8348727357541</v>
       </c>
       <c r="M14" t="n">
-        <v>1137.186135453581</v>
+        <v>1149.776393112418</v>
       </c>
       <c r="N14" t="n">
-        <v>1547.320985032115</v>
+        <v>1563.851736929999</v>
       </c>
       <c r="O14" t="n">
-        <v>1921.264432186584</v>
+        <v>1941.516081055137</v>
       </c>
       <c r="P14" t="n">
-        <v>2205.915511986555</v>
+        <v>2229.342860333581</v>
       </c>
       <c r="Q14" t="n">
-        <v>2371.503871734573</v>
+        <v>2397.316038134682</v>
       </c>
       <c r="R14" t="n">
-        <v>2382.416127664213</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="S14" t="n">
-        <v>2308.769878477876</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="T14" t="n">
-        <v>2308.769878477876</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="U14" t="n">
-        <v>2308.769878477876</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="V14" t="n">
-        <v>2308.769878477876</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="W14" t="n">
-        <v>1956.001223207762</v>
+        <v>2056.846869658784</v>
       </c>
       <c r="X14" t="n">
-        <v>1956.001223207762</v>
+        <v>1683.381111397704</v>
       </c>
       <c r="Y14" t="n">
-        <v>1565.86189123195</v>
+        <v>1683.381111397704</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3013863895427</v>
+        <v>777.0456586102102</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8483571084157</v>
+        <v>602.5926293290833</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9139474471644</v>
+        <v>453.658219667832</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6764924417089</v>
+        <v>294.4207646623765</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1419344685939</v>
+        <v>147.8862066892615</v>
       </c>
       <c r="G15" t="n">
-        <v>165.3607747163955</v>
+        <v>147.8862066892615</v>
       </c>
       <c r="H15" t="n">
-        <v>70.8213048903776</v>
+        <v>70.9502114783342</v>
       </c>
       <c r="I15" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="J15" t="n">
-        <v>227.4442537486578</v>
+        <v>229.1045902665353</v>
       </c>
       <c r="K15" t="n">
-        <v>515.738675382469</v>
+        <v>664.9333347887491</v>
       </c>
       <c r="L15" t="n">
-        <v>793.4710964171197</v>
+        <v>945.2313208429329</v>
       </c>
       <c r="M15" t="n">
-        <v>1136.928600144821</v>
+        <v>1291.682717938545</v>
       </c>
       <c r="N15" t="n">
-        <v>1503.885046922243</v>
+        <v>1661.712297532718</v>
       </c>
       <c r="O15" t="n">
-        <v>1817.358709763902</v>
+        <v>1977.997276516477</v>
       </c>
       <c r="P15" t="n">
-        <v>2049.615894277351</v>
+        <v>2302.768648054319</v>
       </c>
       <c r="Q15" t="n">
-        <v>2362.930989791282</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="R15" t="n">
-        <v>2382.416127664213</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="S15" t="n">
-        <v>2245.212967729194</v>
+        <v>2272.636297420418</v>
       </c>
       <c r="T15" t="n">
-        <v>2050.884893905092</v>
+        <v>2078.356817197257</v>
       </c>
       <c r="U15" t="n">
-        <v>1822.789543119454</v>
+        <v>1850.262259560709</v>
       </c>
       <c r="V15" t="n">
-        <v>1587.637434887711</v>
+        <v>1615.110151328967</v>
       </c>
       <c r="W15" t="n">
-        <v>1333.400078159509</v>
+        <v>1360.872794600765</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.277022174565</v>
+        <v>1153.021294395232</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.516723409611</v>
+        <v>945.2609956302783</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.2307960623125</v>
+        <v>198.3089499109137</v>
       </c>
       <c r="C16" t="n">
-        <v>47.64832255328426</v>
+        <v>198.3089499109137</v>
       </c>
       <c r="D16" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="E16" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="F16" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="G16" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="H16" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="I16" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="J16" t="n">
-        <v>68.48462698807909</v>
+        <v>69.72897615227014</v>
       </c>
       <c r="K16" t="n">
-        <v>232.561912547839</v>
+        <v>234.9571703371436</v>
       </c>
       <c r="L16" t="n">
-        <v>498.0507828350198</v>
+        <v>501.9188074204985</v>
       </c>
       <c r="M16" t="n">
-        <v>788.3606953609745</v>
+        <v>793.7815460358768</v>
       </c>
       <c r="N16" t="n">
-        <v>1077.202303463475</v>
+        <v>1084.139057494131</v>
       </c>
       <c r="O16" t="n">
-        <v>1327.977983400634</v>
+        <v>1336.314919536398</v>
       </c>
       <c r="P16" t="n">
-        <v>1519.03921819542</v>
+        <v>1528.574252011035</v>
       </c>
       <c r="Q16" t="n">
-        <v>1567.885033530161</v>
+        <v>1578.249568077069</v>
       </c>
       <c r="R16" t="n">
-        <v>1567.885033530161</v>
+        <v>1578.249568077069</v>
       </c>
       <c r="S16" t="n">
-        <v>1567.885033530161</v>
+        <v>1578.249568077069</v>
       </c>
       <c r="T16" t="n">
-        <v>1567.885033530161</v>
+        <v>1433.973085177114</v>
       </c>
       <c r="U16" t="n">
-        <v>1278.763049176947</v>
+        <v>1144.851652127531</v>
       </c>
       <c r="V16" t="n">
-        <v>1024.07856097106</v>
+        <v>890.167163921644</v>
       </c>
       <c r="W16" t="n">
-        <v>734.6613909340997</v>
+        <v>600.7499938846835</v>
       </c>
       <c r="X16" t="n">
-        <v>506.6718400360824</v>
+        <v>600.7499938846835</v>
       </c>
       <c r="Y16" t="n">
-        <v>285.8792608925522</v>
+        <v>379.9574147411534</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1199.473361577695</v>
+        <v>1161.208778643984</v>
       </c>
       <c r="C17" t="n">
-        <v>1199.473361577695</v>
+        <v>792.2462617035727</v>
       </c>
       <c r="D17" t="n">
-        <v>841.2076629709441</v>
+        <v>433.9805630968222</v>
       </c>
       <c r="E17" t="n">
-        <v>841.2076629709441</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="F17" t="n">
-        <v>841.2076629709441</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="G17" t="n">
-        <v>425.3538619212823</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="H17" t="n">
-        <v>119.76825168013</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="I17" t="n">
-        <v>47.64832255328425</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="J17" t="n">
-        <v>171.5309650086645</v>
+        <v>173.9493005247274</v>
       </c>
       <c r="K17" t="n">
-        <v>407.9374510330601</v>
+        <v>413.164947683222</v>
       </c>
       <c r="L17" t="n">
-        <v>738.1223632957222</v>
+        <v>746.8348727357532</v>
       </c>
       <c r="M17" t="n">
-        <v>1137.186135453581</v>
+        <v>1149.776393112417</v>
       </c>
       <c r="N17" t="n">
-        <v>1547.320985032115</v>
+        <v>1563.851736929998</v>
       </c>
       <c r="O17" t="n">
-        <v>1921.264432186584</v>
+        <v>1941.516081055137</v>
       </c>
       <c r="P17" t="n">
-        <v>2205.915511986555</v>
+        <v>2229.342860333581</v>
       </c>
       <c r="Q17" t="n">
-        <v>2371.503871734572</v>
+        <v>2397.316038134682</v>
       </c>
       <c r="R17" t="n">
-        <v>2382.416127664213</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="S17" t="n">
-        <v>2254.320425679281</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="T17" t="n">
-        <v>2254.320425679281</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="U17" t="n">
-        <v>2254.320425679281</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="V17" t="n">
-        <v>1925.707775108888</v>
+        <v>2277.58252415099</v>
       </c>
       <c r="W17" t="n">
-        <v>1572.939119838774</v>
+        <v>1924.813868880876</v>
       </c>
       <c r="X17" t="n">
-        <v>1199.473361577695</v>
+        <v>1551.348110619796</v>
       </c>
       <c r="Y17" t="n">
-        <v>1199.473361577695</v>
+        <v>1161.208778643984</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3013863895427</v>
+        <v>777.0456586102102</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8483571084157</v>
+        <v>602.5926293290833</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9139474471644</v>
+        <v>453.658219667832</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6764924417089</v>
+        <v>294.4207646623765</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1419344685938</v>
+        <v>147.8862066892615</v>
       </c>
       <c r="G18" t="n">
-        <v>165.3607747163954</v>
+        <v>142.6153460381173</v>
       </c>
       <c r="H18" t="n">
-        <v>70.82130489037758</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="I18" t="n">
-        <v>47.64832255328425</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="J18" t="n">
-        <v>227.4442537486579</v>
+        <v>104.2744652795306</v>
       </c>
       <c r="K18" t="n">
-        <v>515.7386753824677</v>
+        <v>278.2826251592917</v>
       </c>
       <c r="L18" t="n">
-        <v>793.4710964171186</v>
+        <v>558.5806112134755</v>
       </c>
       <c r="M18" t="n">
-        <v>1136.92860014482</v>
+        <v>905.0320083090876</v>
       </c>
       <c r="N18" t="n">
-        <v>1503.885046922242</v>
+        <v>1275.061587903261</v>
       </c>
       <c r="O18" t="n">
-        <v>1817.358709763902</v>
+        <v>1591.34656688702</v>
       </c>
       <c r="P18" t="n">
-        <v>2049.61589427735</v>
+        <v>2074.573369660509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2362.930989791282</v>
+        <v>2389.39676139358</v>
       </c>
       <c r="R18" t="n">
-        <v>2382.416127664213</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="S18" t="n">
-        <v>2245.212967729194</v>
+        <v>2272.636297420418</v>
       </c>
       <c r="T18" t="n">
-        <v>2050.884893905091</v>
+        <v>2078.356817197257</v>
       </c>
       <c r="U18" t="n">
-        <v>1822.789543119453</v>
+        <v>1850.262259560709</v>
       </c>
       <c r="V18" t="n">
-        <v>1587.63743488771</v>
+        <v>1615.110151328967</v>
       </c>
       <c r="W18" t="n">
-        <v>1333.400078159509</v>
+        <v>1360.872794600765</v>
       </c>
       <c r="X18" t="n">
-        <v>1125.548577953976</v>
+        <v>1153.021294395232</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.516723409611</v>
+        <v>945.2609956302783</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.9244282272718</v>
+        <v>293.8159600633714</v>
       </c>
       <c r="C19" t="n">
-        <v>493.988245299365</v>
+        <v>198.3089499109137</v>
       </c>
       <c r="D19" t="n">
-        <v>343.8716058870292</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="E19" t="n">
-        <v>343.8716058870292</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="F19" t="n">
-        <v>196.9816583891189</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="G19" t="n">
-        <v>196.9816583891189</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="H19" t="n">
-        <v>47.64832255328425</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="I19" t="n">
-        <v>47.64832255328425</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="J19" t="n">
-        <v>68.48462698807913</v>
+        <v>69.72897615227016</v>
       </c>
       <c r="K19" t="n">
-        <v>232.5619125478391</v>
+        <v>234.9571703371437</v>
       </c>
       <c r="L19" t="n">
-        <v>498.05078283502</v>
+        <v>501.9188074204987</v>
       </c>
       <c r="M19" t="n">
-        <v>788.3606953609748</v>
+        <v>793.781546035877</v>
       </c>
       <c r="N19" t="n">
-        <v>1077.202303463475</v>
+        <v>1084.139057494131</v>
       </c>
       <c r="O19" t="n">
-        <v>1327.977983400635</v>
+        <v>1336.314919536398</v>
       </c>
       <c r="P19" t="n">
-        <v>1519.039218195421</v>
+        <v>1528.574252011036</v>
       </c>
       <c r="Q19" t="n">
-        <v>1567.885033530162</v>
+        <v>1578.249568077069</v>
       </c>
       <c r="R19" t="n">
-        <v>1567.885033530162</v>
+        <v>1578.249568077069</v>
       </c>
       <c r="S19" t="n">
-        <v>1567.885033530162</v>
+        <v>1578.249568077069</v>
       </c>
       <c r="T19" t="n">
-        <v>1548.039511304946</v>
+        <v>1355.02860225382</v>
       </c>
       <c r="U19" t="n">
-        <v>1548.039511304946</v>
+        <v>1065.907169204236</v>
       </c>
       <c r="V19" t="n">
-        <v>1293.355023099059</v>
+        <v>811.2226809983493</v>
       </c>
       <c r="W19" t="n">
-        <v>1293.355023099059</v>
+        <v>521.8055109613888</v>
       </c>
       <c r="X19" t="n">
-        <v>1065.365472201042</v>
+        <v>293.8159600633714</v>
       </c>
       <c r="Y19" t="n">
-        <v>844.5728930575116</v>
+        <v>293.8159600633714</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1622.350529339011</v>
+        <v>1101.479893257442</v>
       </c>
       <c r="C20" t="n">
-        <v>1622.350529339011</v>
+        <v>732.5173763170308</v>
       </c>
       <c r="D20" t="n">
-        <v>1565.86189123195</v>
+        <v>732.5173763170308</v>
       </c>
       <c r="E20" t="n">
-        <v>1180.073638633706</v>
+        <v>732.5173763170308</v>
       </c>
       <c r="F20" t="n">
-        <v>769.0877338440985</v>
+        <v>321.5314715274232</v>
       </c>
       <c r="G20" t="n">
-        <v>353.2339327944366</v>
+        <v>321.5314715274232</v>
       </c>
       <c r="H20" t="n">
-        <v>47.64832255328426</v>
+        <v>119.4435614846325</v>
       </c>
       <c r="I20" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="J20" t="n">
-        <v>171.5309650086645</v>
+        <v>173.9493005247275</v>
       </c>
       <c r="K20" t="n">
-        <v>407.9374510330601</v>
+        <v>413.164947683222</v>
       </c>
       <c r="L20" t="n">
-        <v>738.1223632957226</v>
+        <v>746.8348727357534</v>
       </c>
       <c r="M20" t="n">
-        <v>1137.186135453582</v>
+        <v>1149.776393112417</v>
       </c>
       <c r="N20" t="n">
-        <v>1547.320985032116</v>
+        <v>1563.851736929998</v>
       </c>
       <c r="O20" t="n">
-        <v>1921.264432186584</v>
+        <v>1941.516081055137</v>
       </c>
       <c r="P20" t="n">
-        <v>2205.915511986555</v>
+        <v>2229.342860333581</v>
       </c>
       <c r="Q20" t="n">
-        <v>2371.503871734573</v>
+        <v>2397.316038134682</v>
       </c>
       <c r="R20" t="n">
-        <v>2382.416127664213</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="S20" t="n">
-        <v>2382.416127664213</v>
+        <v>2282.033278702564</v>
       </c>
       <c r="T20" t="n">
-        <v>2382.416127664213</v>
+        <v>2072.733802875458</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.416127664213</v>
+        <v>1819.142620665135</v>
       </c>
       <c r="V20" t="n">
-        <v>2382.416127664213</v>
+        <v>1488.079733321564</v>
       </c>
       <c r="W20" t="n">
-        <v>2382.416127664213</v>
+        <v>1488.079733321564</v>
       </c>
       <c r="X20" t="n">
-        <v>2008.950369403133</v>
+        <v>1488.079733321564</v>
       </c>
       <c r="Y20" t="n">
-        <v>2008.950369403133</v>
+        <v>1488.079733321564</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>749.5729421689546</v>
+        <v>814.1208663055503</v>
       </c>
       <c r="C21" t="n">
-        <v>575.1199128878276</v>
+        <v>639.6678370244233</v>
       </c>
       <c r="D21" t="n">
-        <v>426.1855032265763</v>
+        <v>490.733427363172</v>
       </c>
       <c r="E21" t="n">
-        <v>266.9480482211208</v>
+        <v>331.4959723577165</v>
       </c>
       <c r="F21" t="n">
-        <v>120.4134902480058</v>
+        <v>184.9614143846015</v>
       </c>
       <c r="G21" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="H21" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="I21" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="J21" t="n">
-        <v>102.6141287616531</v>
+        <v>104.2744652795306</v>
       </c>
       <c r="K21" t="n">
-        <v>274.714271121484</v>
+        <v>540.1032098017444</v>
       </c>
       <c r="L21" t="n">
-        <v>686.1694703220719</v>
+        <v>820.4011958559281</v>
       </c>
       <c r="M21" t="n">
-        <v>1029.626974049773</v>
+        <v>1166.85259295154</v>
       </c>
       <c r="N21" t="n">
-        <v>1396.583420827196</v>
+        <v>1536.882172545714</v>
       </c>
       <c r="O21" t="n">
-        <v>1710.057083668855</v>
+        <v>1853.167151529472</v>
       </c>
       <c r="P21" t="n">
-        <v>2257.592409135842</v>
+        <v>2302.768648054319</v>
       </c>
       <c r="Q21" t="n">
-        <v>2362.930989791282</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="R21" t="n">
-        <v>2382.416127664213</v>
+        <v>2409.615524928899</v>
       </c>
       <c r="S21" t="n">
-        <v>2245.212967729194</v>
+        <v>2272.636297420418</v>
       </c>
       <c r="T21" t="n">
-        <v>2050.884893905092</v>
+        <v>2078.356817197257</v>
       </c>
       <c r="U21" t="n">
-        <v>1822.789543119454</v>
+        <v>1887.337467256049</v>
       </c>
       <c r="V21" t="n">
-        <v>1587.637434887711</v>
+        <v>1652.185359024307</v>
       </c>
       <c r="W21" t="n">
-        <v>1333.400078159509</v>
+        <v>1397.948002296105</v>
       </c>
       <c r="X21" t="n">
-        <v>1125.548577953977</v>
+        <v>1190.096502090572</v>
       </c>
       <c r="Y21" t="n">
-        <v>917.7882791890227</v>
+        <v>982.3362033256183</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.2307960623132</v>
+        <v>293.8159600633712</v>
       </c>
       <c r="C22" t="n">
-        <v>47.64832255328426</v>
+        <v>293.8159600633712</v>
       </c>
       <c r="D22" t="n">
-        <v>47.64832255328426</v>
+        <v>143.6993206510355</v>
       </c>
       <c r="E22" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="F22" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="G22" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="H22" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="I22" t="n">
-        <v>47.64832255328426</v>
+        <v>48.19231049857797</v>
       </c>
       <c r="J22" t="n">
-        <v>68.48462698807913</v>
+        <v>69.72897615227014</v>
       </c>
       <c r="K22" t="n">
-        <v>232.5619125478391</v>
+        <v>234.9571703371436</v>
       </c>
       <c r="L22" t="n">
-        <v>498.05078283502</v>
+        <v>501.9188074204985</v>
       </c>
       <c r="M22" t="n">
-        <v>788.3606953609748</v>
+        <v>793.7815460358768</v>
       </c>
       <c r="N22" t="n">
-        <v>1077.202303463475</v>
+        <v>1084.139057494131</v>
       </c>
       <c r="O22" t="n">
-        <v>1327.977983400635</v>
+        <v>1336.314919536398</v>
       </c>
       <c r="P22" t="n">
-        <v>1519.039218195421</v>
+        <v>1528.574252011035</v>
       </c>
       <c r="Q22" t="n">
-        <v>1567.885033530162</v>
+        <v>1578.249568077069</v>
       </c>
       <c r="R22" t="n">
-        <v>1567.885033530162</v>
+        <v>1578.249568077069</v>
       </c>
       <c r="S22" t="n">
-        <v>1567.885033530162</v>
+        <v>1578.249568077069</v>
       </c>
       <c r="T22" t="n">
-        <v>1567.885033530162</v>
+        <v>1355.028602253819</v>
       </c>
       <c r="U22" t="n">
-        <v>1278.763049176948</v>
+        <v>1065.907169204236</v>
       </c>
       <c r="V22" t="n">
-        <v>1024.078560971061</v>
+        <v>811.2226809983491</v>
       </c>
       <c r="W22" t="n">
-        <v>734.6613909341004</v>
+        <v>521.8055109613886</v>
       </c>
       <c r="X22" t="n">
-        <v>506.671840036083</v>
+        <v>293.8159600633712</v>
       </c>
       <c r="Y22" t="n">
-        <v>285.8792608925529</v>
+        <v>293.8159600633712</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1945.681952669558</v>
+        <v>906.1570541554036</v>
       </c>
       <c r="C23" t="n">
-        <v>1576.719435729147</v>
+        <v>906.1570541554036</v>
       </c>
       <c r="D23" t="n">
-        <v>1218.453737122396</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="E23" t="n">
-        <v>832.6654845241519</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F23" t="n">
-        <v>421.6795797345444</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G23" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H23" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I23" t="n">
         <v>51.24678656800311</v>
@@ -5992,13 +5992,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L23" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N23" t="n">
         <v>1656.671415230817</v>
@@ -6025,16 +6025,16 @@
         <v>2353.59368700598</v>
       </c>
       <c r="V23" t="n">
-        <v>2332.28179273368</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W23" t="n">
-        <v>2332.28179273368</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X23" t="n">
-        <v>2332.28179273368</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y23" t="n">
-        <v>2332.28179273368</v>
+        <v>906.1570541554036</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D24" t="n">
         <v>607.9167021542605</v>
@@ -6056,28 +6056,28 @@
         <v>448.679247148805</v>
       </c>
       <c r="F24" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G24" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I24" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>507.2413987429755</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L24" t="n">
-        <v>801.9449557744473</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M24" t="n">
-        <v>1165.206974733667</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N24" t="n">
         <v>1552.492103330613</v>
@@ -6107,7 +6107,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W24" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X24" t="n">
         <v>1307.279776881661</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>342.4631083446101</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C25" t="n">
-        <v>342.4631083446101</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D25" t="n">
-        <v>342.4631083446101</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E25" t="n">
-        <v>342.4631083446101</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F25" t="n">
-        <v>195.5731608466997</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G25" t="n">
         <v>51.24678656800311</v>
@@ -6147,16 +6147,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K25" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M25" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N25" t="n">
         <v>1123.088724245823</v>
@@ -6168,31 +6168,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q25" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S25" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T25" t="n">
-        <v>1114.255484944676</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="U25" t="n">
-        <v>825.1371474485143</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="V25" t="n">
-        <v>570.4526592426274</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="W25" t="n">
-        <v>570.4526592426274</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X25" t="n">
-        <v>342.4631083446101</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y25" t="n">
-        <v>342.4631083446101</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1164.26325471341</v>
+        <v>494.0456011520461</v>
       </c>
       <c r="C26" t="n">
-        <v>795.3007377729979</v>
+        <v>125.0830842116344</v>
       </c>
       <c r="D26" t="n">
-        <v>437.0350391662474</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E26" t="n">
         <v>51.24678656800311</v>
@@ -6253,25 +6253,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T26" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U26" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V26" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W26" t="n">
-        <v>2314.468185014423</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.002426753343</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y26" t="n">
-        <v>1550.863094777531</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E27" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H27" t="n">
         <v>71.67401812057901</v>
@@ -6308,25 +6308,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K27" t="n">
-        <v>482.9033490193029</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L27" t="n">
-        <v>777.6069060507746</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.868925009995</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.15405360694</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O27" t="n">
-        <v>1860.224488783102</v>
+        <v>2193.450786296772</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.685363568936</v>
+        <v>2440.633520129069</v>
       </c>
       <c r="Q27" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R27" t="n">
         <v>2562.339328400155</v>
@@ -6344,7 +6344,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X27" t="n">
         <v>1307.279776881661</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>937.3909343092797</v>
+        <v>792.8801184070676</v>
       </c>
       <c r="C28" t="n">
-        <v>768.4547513813728</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D28" t="n">
-        <v>618.3381119690371</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E28" t="n">
-        <v>470.425018386644</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F28" t="n">
-        <v>323.5350708887336</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G28" t="n">
-        <v>155.5486061970122</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H28" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I28" t="n">
         <v>51.24678656800311</v>
@@ -6411,25 +6411,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T28" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U28" t="n">
-        <v>1636.446120074497</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="V28" t="n">
-        <v>1636.446120074497</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="W28" t="n">
-        <v>1347.028950037537</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="X28" t="n">
-        <v>1119.039399139519</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="Y28" t="n">
-        <v>1119.039399139519</v>
+        <v>974.5285832373073</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1412.134398099142</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C29" t="n">
-        <v>1412.134398099142</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.725694231566</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E29" t="n">
         <v>877.9374416333219</v>
@@ -6466,10 +6466,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L29" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
@@ -6496,19 +6496,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U29" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V29" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W29" t="n">
-        <v>2562.339328400155</v>
+        <v>2023.639130613667</v>
       </c>
       <c r="X29" t="n">
-        <v>2188.873570139076</v>
+        <v>2023.639130613667</v>
       </c>
       <c r="Y29" t="n">
-        <v>1798.734238163264</v>
+        <v>1633.499798637855</v>
       </c>
     </row>
     <row r="30">
@@ -6524,16 +6524,16 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E30" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F30" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H30" t="n">
         <v>71.67401812057901</v>
@@ -6554,16 +6554,16 @@
         <v>956.284402521753</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.492103330613</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O30" t="n">
-        <v>1884.562538506775</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P30" t="n">
-        <v>2447.023413292609</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q30" t="n">
-        <v>2562.339328400155</v>
+        <v>2561.393271046732</v>
       </c>
       <c r="R30" t="n">
         <v>2562.339328400155</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>981.8280128167644</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C31" t="n">
-        <v>812.8918298888575</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D31" t="n">
-        <v>662.7751904765217</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E31" t="n">
-        <v>514.8620968941286</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F31" t="n">
-        <v>367.9721493962183</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G31" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I31" t="n">
         <v>51.24678656800311</v>
@@ -6657,16 +6657,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V31" t="n">
-        <v>1636.446120074497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W31" t="n">
-        <v>1347.028950037537</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X31" t="n">
-        <v>1347.028950037537</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y31" t="n">
-        <v>1163.476477647004</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>884.1849331278579</v>
+        <v>778.4750021151654</v>
       </c>
       <c r="C32" t="n">
-        <v>884.1849331278579</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D32" t="n">
-        <v>525.9192345211075</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E32" t="n">
-        <v>525.9192345211075</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F32" t="n">
-        <v>525.9192345211075</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G32" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H32" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L32" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P32" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R32" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S32" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T32" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V32" t="n">
-        <v>1644.250531453059</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W32" t="n">
-        <v>1644.250531453059</v>
+        <v>1928.679932416179</v>
       </c>
       <c r="X32" t="n">
-        <v>1270.78477319198</v>
+        <v>1555.214174155099</v>
       </c>
       <c r="Y32" t="n">
-        <v>1270.78477319198</v>
+        <v>1165.074842179287</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E33" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G33" t="n">
         <v>165.443278618252</v>
@@ -6776,34 +6776,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J33" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K33" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143504</v>
       </c>
       <c r="L33" t="n">
-        <v>717.8525085495378</v>
+        <v>884.9085321458222</v>
       </c>
       <c r="M33" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.293511287796</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O33" t="n">
-        <v>2047.363946463958</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.546680296255</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q33" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R33" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S33" t="n">
         <v>2426.617474780096</v>
@@ -6818,10 +6818,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>977.1399948936614</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C34" t="n">
-        <v>977.1399948936614</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D34" t="n">
-        <v>977.1399948936614</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E34" t="n">
-        <v>977.1399948936614</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F34" t="n">
-        <v>977.1399948936614</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G34" t="n">
-        <v>977.1399948936614</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H34" t="n">
-        <v>977.1399948936614</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I34" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J34" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K34" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M34" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N34" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O34" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P34" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q34" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.127174075599</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T34" t="n">
-        <v>2040.148693270334</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.030355774172</v>
+        <v>1209.11386483261</v>
       </c>
       <c r="V34" t="n">
-        <v>1496.345867568285</v>
+        <v>1209.11386483261</v>
       </c>
       <c r="W34" t="n">
-        <v>1206.928697531324</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="X34" t="n">
-        <v>978.939146633307</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="Y34" t="n">
-        <v>977.1399948936614</v>
+        <v>919.6966947956497</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>844.848651279277</v>
+        <v>1110.088185601309</v>
       </c>
       <c r="C35" t="n">
-        <v>475.8861343388652</v>
+        <v>741.1256686608974</v>
       </c>
       <c r="D35" t="n">
-        <v>117.6204357321147</v>
+        <v>382.8599700541469</v>
       </c>
       <c r="E35" t="n">
-        <v>117.6204357321147</v>
+        <v>382.8599700541469</v>
       </c>
       <c r="F35" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G35" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H35" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I35" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L35" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M35" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N35" t="n">
         <v>1656.671415230817</v>
@@ -6967,22 +6967,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U35" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V35" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W35" t="n">
-        <v>1291.481876182945</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X35" t="n">
-        <v>918.0161179218655</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y35" t="n">
-        <v>844.848651279277</v>
+        <v>1110.088185601309</v>
       </c>
     </row>
     <row r="36">
@@ -7004,13 +7004,13 @@
         <v>448.6792471488051</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G36" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I36" t="n">
         <v>51.24678656800311</v>
@@ -7019,22 +7019,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L36" t="n">
-        <v>717.8525085495378</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M36" t="n">
-        <v>1081.114527508758</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.399656105703</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O36" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P36" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q36" t="n">
         <v>2562.339328400155</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>281.0354892056666</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="C37" t="n">
-        <v>281.0354892056666</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="D37" t="n">
-        <v>281.0354892056666</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="E37" t="n">
-        <v>281.0354892056666</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F37" t="n">
-        <v>281.0354892056666</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G37" t="n">
-        <v>281.0354892056666</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H37" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I37" t="n">
         <v>51.24678656800311</v>
@@ -7119,28 +7119,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U37" t="n">
-        <v>825.137147448514</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V37" t="n">
-        <v>570.4526592426272</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W37" t="n">
-        <v>281.0354892056666</v>
+        <v>696.5105617243684</v>
       </c>
       <c r="X37" t="n">
-        <v>281.0354892056666</v>
+        <v>696.5105617243684</v>
       </c>
       <c r="Y37" t="n">
-        <v>281.0354892056666</v>
+        <v>696.5105617243684</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>778.4750021151654</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C38" t="n">
-        <v>409.5124851747536</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D38" t="n">
-        <v>51.24678656800311</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E38" t="n">
-        <v>51.24678656800311</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F38" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G38" t="n">
         <v>51.24678656800311</v>
@@ -7174,16 +7174,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N38" t="n">
         <v>1656.671415230817</v>
@@ -7201,25 +7201,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2513.323880495569</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U38" t="n">
-        <v>2259.742819759749</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V38" t="n">
-        <v>1928.679932416179</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="W38" t="n">
-        <v>1928.679932416179</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="X38" t="n">
-        <v>1555.214174155099</v>
+        <v>2040.4648662715</v>
       </c>
       <c r="Y38" t="n">
-        <v>1165.074842179287</v>
+        <v>1650.325534295688</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C39" t="n">
         <v>756.8511118155118</v>
@@ -7256,22 +7256,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>551.2876347907472</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L39" t="n">
-        <v>845.991191822219</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M39" t="n">
-        <v>1209.253210781439</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.432194560478</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O39" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q39" t="n">
         <v>2538.001278676482</v>
@@ -7292,7 +7292,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
         <v>1307.279776881661</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1387.807075285521</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C40" t="n">
-        <v>1218.870892357614</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D40" t="n">
-        <v>1068.754252945278</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E40" t="n">
-        <v>977.1399948936614</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F40" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G40" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H40" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I40" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J40" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K40" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L40" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M40" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N40" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O40" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P40" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q40" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R40" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T40" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U40" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V40" t="n">
-        <v>2307.654840194269</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W40" t="n">
-        <v>2018.237670157308</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X40" t="n">
-        <v>1790.248119259291</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y40" t="n">
-        <v>1569.455540115761</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>831.1952082980224</v>
+        <v>1287.435190625613</v>
       </c>
       <c r="C41" t="n">
-        <v>462.2326913576107</v>
+        <v>1287.435190625613</v>
       </c>
       <c r="D41" t="n">
-        <v>462.2326913576107</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E41" t="n">
-        <v>462.2326913576107</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F41" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G41" t="n">
         <v>51.24678656800311</v>
@@ -7414,7 +7414,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L41" t="n">
         <v>795.7553530872915</v>
@@ -7438,25 +7438,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T41" t="n">
-        <v>2545.346983687461</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U41" t="n">
-        <v>2291.765922951641</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V41" t="n">
-        <v>1960.70303560807</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W41" t="n">
-        <v>1607.934380337956</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X41" t="n">
-        <v>1607.934380337956</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y41" t="n">
-        <v>1217.795048362144</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>165.4432786182523</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I42" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J42" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L42" t="n">
-        <v>932.4978103100998</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M42" t="n">
-        <v>1295.75982926932</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N42" t="n">
-        <v>1683.044957866265</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O42" t="n">
-        <v>2015.115393042427</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.951796950387</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C43" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D43" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E43" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F43" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G43" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H43" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I43" t="n">
         <v>51.24678656800311</v>
@@ -7593,28 +7593,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>1533.86271359008</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U43" t="n">
-        <v>1244.744376093917</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.744376093917</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W43" t="n">
-        <v>1244.744376093917</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X43" t="n">
-        <v>1244.744376093917</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y43" t="n">
-        <v>1023.951796950387</v>
+        <v>131.4655134886758</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1082.534146117595</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="C44" t="n">
-        <v>713.5716291771834</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="D44" t="n">
-        <v>355.3059305704328</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="E44" t="n">
-        <v>355.3059305704328</v>
+        <v>812.785994158452</v>
       </c>
       <c r="F44" t="n">
-        <v>355.3059305704328</v>
+        <v>401.8000893688445</v>
       </c>
       <c r="G44" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N44" t="n">
         <v>1656.671415230817</v>
@@ -7678,22 +7678,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T44" t="n">
-        <v>2393.41250772818</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U44" t="n">
-        <v>2139.83144699236</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V44" t="n">
-        <v>1808.768559648789</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W44" t="n">
-        <v>1455.999904378675</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X44" t="n">
-        <v>1082.534146117595</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y44" t="n">
-        <v>1082.534146117595</v>
+        <v>1585.174086820818</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E45" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F45" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K45" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L45" t="n">
-        <v>801.9449557744476</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M45" t="n">
-        <v>1165.206974733668</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O45" t="n">
-        <v>1884.562538506775</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P45" t="n">
         <v>2447.023413292609</v>
@@ -7760,16 +7760,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V45" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y45" t="n">
         <v>1099.519478116707</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>833.0891146802707</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="C46" t="n">
-        <v>664.1529317523638</v>
+        <v>214.6827127621774</v>
       </c>
       <c r="D46" t="n">
-        <v>514.036292340028</v>
+        <v>214.6827127621774</v>
       </c>
       <c r="E46" t="n">
-        <v>366.1231987576349</v>
+        <v>66.76961917978431</v>
       </c>
       <c r="F46" t="n">
-        <v>219.2332512597245</v>
+        <v>66.76961917978431</v>
       </c>
       <c r="G46" t="n">
-        <v>51.24678656800311</v>
+        <v>66.76961917978431</v>
       </c>
       <c r="H46" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J46" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N46" t="n">
         <v>1123.088724245823</v>
@@ -7836,22 +7836,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T46" t="n">
-        <v>1439.817372234359</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U46" t="n">
-        <v>1304.154749547471</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.154749547471</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W46" t="n">
-        <v>1014.73757951051</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X46" t="n">
-        <v>1014.73757951051</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="Y46" t="n">
-        <v>1014.73757951051</v>
+        <v>383.6188956900843</v>
       </c>
     </row>
   </sheetData>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>145.5575027821332</v>
       </c>
       <c r="L12" t="n">
-        <v>315.0662328911533</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.1520064951154</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>25.83971236391585</v>
+        <v>25.09867634130188</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>117.3679588626064</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>91.16955350540417</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>25.0986763413019</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>117.3679588626051</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>251.2255446525227</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>135.0735132989263</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>217.2605888458129</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>25.0986763413019</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>211.0329012241556</v>
+        <v>84.94186588374743</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.93778120154985</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>186.4490126143854</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.454437538930151</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>211.0329012241564</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>20.9377812015499</v>
+        <v>21.89339468985681</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>168.743458178065</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>154.0169020165195</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.939397511106</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>20.9377812015499</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>129.4330134067487</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>84.94186588374743</v>
       </c>
       <c r="L42" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>162.0073097921338</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>84.94186588374737</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.909162189371</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644702</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>165.892060705384</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6952630391652</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>302.5297541387407</v>
+        <v>302.3013023779137</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>70.53873847619397</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>126.8147449650818</v>
+        <v>126.3064237640716</v>
       </c>
       <c r="T11" t="n">
-        <v>29.7283273728502</v>
+        <v>207.206481068835</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>22.94125251372242</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>135.8311283356686</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>21.13877892899151</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>152.7135827724892</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>146.3986135712971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>46.16090540788937</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>106.4862101721973</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.5337359904635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.815979481308</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.0315097615302</v>
+        <v>220.9887561650171</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>329.6491923782479</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>302.3013023779137</v>
       </c>
       <c r="I14" t="n">
-        <v>71.39872983557734</v>
+        <v>70.538738476194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>53.90495827060849</v>
+        <v>126.3064237640716</v>
       </c>
       <c r="T14" t="n">
-        <v>207.3041300455732</v>
+        <v>207.206481068835</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0570549497589</v>
+        <v>251.0552703882194</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.4014128471632</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>17.312169925326</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>179.9111597783821</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>111.2301723246899</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3727905002829</v>
+        <v>166.3627843393969</v>
       </c>
       <c r="H16" t="n">
-        <v>147.8400024774763</v>
+        <v>147.7510386106894</v>
       </c>
       <c r="I16" t="n">
-        <v>106.7871227195706</v>
+        <v>106.4862101721974</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.5337359904635</v>
+        <v>104.0838226109871</v>
       </c>
       <c r="S16" t="n">
-        <v>195.815979481308</v>
+        <v>195.6415993865938</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0315097615302</v>
+        <v>78.15503809406209</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6729560199217</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>302.3013023779137</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>70.53873847619397</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>126.3064237640716</v>
       </c>
       <c r="T17" t="n">
-        <v>207.3041300455732</v>
+        <v>207.206481068835</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0570549497589</v>
+        <v>251.0552703882194</v>
       </c>
       <c r="V17" t="n">
-        <v>2.425734405445837</v>
+        <v>197.0395877000055</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>130.1832608025306</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22.53032196995865</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>179.9111597783826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>72.69488104769466</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3727905002829</v>
+        <v>166.3627843393969</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.7510386106894</v>
       </c>
       <c r="I19" t="n">
-        <v>106.7871227195706</v>
+        <v>106.4862101721973</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>104.5337359904635</v>
+        <v>104.0838226109871</v>
       </c>
       <c r="S19" t="n">
-        <v>195.815979481308</v>
+        <v>195.6415993865938</v>
       </c>
       <c r="T19" t="n">
-        <v>201.3844427585669</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2307645096813</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>298.7592898946924</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6729560199217</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>102.2342714355509</v>
       </c>
       <c r="I20" t="n">
-        <v>71.39872983557731</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>126.8147449650818</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>207.3041300455732</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0570549497589</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>63.37583213690208</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>93.59407512775769</v>
+        <v>93.47880518414398</v>
       </c>
       <c r="I21" t="n">
-        <v>22.94125251372239</v>
+        <v>22.53032196995866</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>36.70445561838653</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>111.2301723246892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>51.88202259563623</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3727905002829</v>
+        <v>166.3627843393969</v>
       </c>
       <c r="H22" t="n">
-        <v>147.8400024774763</v>
+        <v>147.7510386106894</v>
       </c>
       <c r="I22" t="n">
-        <v>106.7871227195706</v>
+        <v>106.4862101721974</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>104.5337359904635</v>
+        <v>104.0838226109871</v>
       </c>
       <c r="S22" t="n">
-        <v>195.815979481308</v>
+        <v>195.6415993865938</v>
       </c>
       <c r="T22" t="n">
-        <v>221.0315097615302</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>301.7999495543723</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>306.653483140558</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>23.42348950889453</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551288</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>117.489894564493</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24448,10 +24448,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>281.585106953488</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>103.8485367655379</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>43.99270772240988</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>264.9246023634266</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>207.7584247917828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>66.97302303725161</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>107.2789458766048</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.86770568546734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>308.3504445342566</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>173.1226405622052</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>83.9169174289442</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.8034931298457</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>379.5975466528345</v>
       </c>
       <c r="G35" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>313.8021466798909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.55728874774262</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>115.1002890122037</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>301.0185525624054</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>158.1328915546937</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>304.2798570400291</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>55.73584717546828</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.3066000448042</v>
@@ -25599,7 +25599,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
@@ -25608,10 +25608,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>143.6817122363089</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>331.210640190577</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.0185525624054</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>189.8357637146663</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>100.4154405304713</v>
       </c>
       <c r="C43" t="n">
-        <v>63.09404891161392</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>64.49993300012102</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>162.8728479137724</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>131.8839048694655</v>
       </c>
       <c r="I46" t="n">
         <v>104.7965952039006</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>151.921157661182</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>328903.9999768421</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>747399.0507712275</v>
+        <v>752051.457158381</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>747399.0507712276</v>
+        <v>752051.4571583809</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>747399.0507712277</v>
+        <v>752051.4571583809</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>747399.0507712277</v>
+        <v>752051.4571583811</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778174.580102085</v>
+        <v>778174.5801020849</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778174.5801020849</v>
+        <v>778174.5801020848</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778174.580102085</v>
+        <v>778174.5801020851</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778174.5801020849</v>
+        <v>778174.580102085</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778174.580102085</v>
+        <v>778174.5801020849</v>
       </c>
     </row>
   </sheetData>
@@ -26319,19 +26319,19 @@
         <v>107507.4055314464</v>
       </c>
       <c r="D2" t="n">
-        <v>109105.1589487766</v>
+        <v>107507.4055314464</v>
       </c>
       <c r="E2" t="n">
-        <v>293901.0340907729</v>
+        <v>295725.7734543378</v>
       </c>
       <c r="F2" t="n">
-        <v>293901.0340907729</v>
+        <v>295725.7734543378</v>
       </c>
       <c r="G2" t="n">
-        <v>293901.0340907727</v>
+        <v>295725.7734543378</v>
       </c>
       <c r="H2" t="n">
-        <v>293901.0340907729</v>
+        <v>295725.7734543377</v>
       </c>
       <c r="I2" t="n">
         <v>305971.6304943087</v>
@@ -26340,22 +26340,22 @@
         <v>305971.6304943086</v>
       </c>
       <c r="K2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943085</v>
       </c>
       <c r="L2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943085</v>
       </c>
       <c r="M2" t="n">
         <v>305971.6304943086</v>
       </c>
       <c r="N2" t="n">
+        <v>305971.6304943086</v>
+      </c>
+      <c r="O2" t="n">
         <v>305971.6304943087</v>
       </c>
-      <c r="O2" t="n">
-        <v>305971.6304943085</v>
-      </c>
       <c r="P2" t="n">
-        <v>305971.6304943086</v>
+        <v>305971.6304943087</v>
       </c>
     </row>
     <row r="3">
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19708.98312032399</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>880286.3742846006</v>
+        <v>905263.6600220253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39591.45526973942</v>
+        <v>33606.32541564634</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>148426.9071696081</v>
+        <v>150121.4568185953</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>56141.10260490044</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>13133.32517048743</v>
+        <v>13229.16747153992</v>
       </c>
       <c r="F4" t="n">
-        <v>13133.32517048743</v>
+        <v>13229.16747153992</v>
       </c>
       <c r="G4" t="n">
-        <v>13133.32517048742</v>
+        <v>13229.16747153991</v>
       </c>
       <c r="H4" t="n">
-        <v>13133.32517048742</v>
+        <v>13229.16747153992</v>
       </c>
       <c r="I4" t="n">
-        <v>13767.31913011279</v>
+        <v>13767.3191301128</v>
       </c>
       <c r="J4" t="n">
         <v>13767.3191301128</v>
@@ -26459,7 +26459,7 @@
         <v>13767.3191301128</v>
       </c>
       <c r="P4" t="n">
-        <v>13767.3191301128</v>
+        <v>13767.31913011279</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34129.29174257201</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>55775.15735506166</v>
+        <v>56309.55358208734</v>
       </c>
       <c r="F5" t="n">
-        <v>55775.15735506166</v>
+        <v>56309.55358208733</v>
       </c>
       <c r="G5" t="n">
-        <v>55775.15735506166</v>
+        <v>56309.55358208734</v>
       </c>
       <c r="H5" t="n">
-        <v>55775.15735506167</v>
+        <v>56309.55358208733</v>
       </c>
       <c r="I5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="J5" t="n">
         <v>59310.17243984471</v>
@@ -26499,7 +26499,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="L5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="M5" t="n">
         <v>59310.17243984471</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14750.73248915088</v>
+        <v>-399.9414808838883</v>
       </c>
       <c r="C6" t="n">
-        <v>14750.73248915088</v>
+        <v>-399.9414808838592</v>
       </c>
       <c r="D6" t="n">
-        <v>-874.2185190197924</v>
+        <v>-399.9414808838737</v>
       </c>
       <c r="E6" t="n">
-        <v>-655293.8227193768</v>
+        <v>-684816.3631952051</v>
       </c>
       <c r="F6" t="n">
-        <v>224992.5515652237</v>
+        <v>220447.2968268203</v>
       </c>
       <c r="G6" t="n">
-        <v>224992.5515652235</v>
+        <v>220447.2968268203</v>
       </c>
       <c r="H6" t="n">
-        <v>224992.5515652238</v>
+        <v>220447.2968268204</v>
       </c>
       <c r="I6" t="n">
-        <v>193302.6836546117</v>
+        <v>194060.3507868132</v>
       </c>
       <c r="J6" t="n">
-        <v>232894.1389243513</v>
+        <v>227666.6762024594</v>
       </c>
       <c r="K6" t="n">
-        <v>232894.1389243511</v>
+        <v>227666.6762024593</v>
       </c>
       <c r="L6" t="n">
-        <v>232894.1389243512</v>
+        <v>227666.6762024593</v>
       </c>
       <c r="M6" t="n">
-        <v>84467.23175474301</v>
+        <v>77545.21938386411</v>
       </c>
       <c r="N6" t="n">
-        <v>232894.1389243512</v>
+        <v>227666.6762024594</v>
       </c>
       <c r="O6" t="n">
-        <v>232894.138924351</v>
+        <v>227666.6762024595</v>
       </c>
       <c r="P6" t="n">
-        <v>232894.1389243511</v>
+        <v>227666.6762024596</v>
       </c>
     </row>
   </sheetData>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>897.3592758975059</v>
+        <v>902.9081469343158</v>
       </c>
       <c r="F3" t="n">
-        <v>897.359275897506</v>
+        <v>902.9081469343157</v>
       </c>
       <c r="G3" t="n">
-        <v>897.3592758975062</v>
+        <v>902.9081469343159</v>
       </c>
       <c r="H3" t="n">
-        <v>897.3592758975062</v>
+        <v>902.9081469343157</v>
       </c>
       <c r="I3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="J3" t="n">
         <v>934.0648921175392</v>
@@ -26779,7 +26779,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>595.604031916053</v>
+        <v>602.4038812322246</v>
       </c>
       <c r="F4" t="n">
-        <v>595.6040319160533</v>
+        <v>602.4038812322246</v>
       </c>
       <c r="G4" t="n">
-        <v>595.6040319160531</v>
+        <v>602.4038812322246</v>
       </c>
       <c r="H4" t="n">
-        <v>595.6040319160533</v>
+        <v>602.4038812322246</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000389</v>
@@ -26819,7 +26819,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="L4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M4" t="n">
         <v>640.5848321000389</v>
@@ -26831,7 +26831,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
     </row>
   </sheetData>
@@ -26965,25 +26965,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>874.3458932107166</v>
+        <v>902.9081469343158</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>36.70561622003322</v>
+        <v>31.15674518322351</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>595.604031916053</v>
+        <v>602.4038812322246</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.98080018398559</v>
+        <v>38.1809508678142</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>595.604031916053</v>
+        <v>602.4038812322246</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>595.604031916053</v>
+        <v>602.4038812322246</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.60747447596987</v>
+        <v>3.629781495213327</v>
       </c>
       <c r="H11" t="n">
-        <v>36.94504797702644</v>
+        <v>37.1734997378535</v>
       </c>
       <c r="I11" t="n">
-        <v>139.0771597348285</v>
+        <v>139.9371510942119</v>
       </c>
       <c r="J11" t="n">
-        <v>306.179886804848</v>
+        <v>308.0731671793624</v>
       </c>
       <c r="K11" t="n">
-        <v>458.8842813726528</v>
+        <v>461.7218178717426</v>
       </c>
       <c r="L11" t="n">
-        <v>569.2865283666158</v>
+        <v>572.8067433058776</v>
       </c>
       <c r="M11" t="n">
-        <v>633.4409525786449</v>
+        <v>637.3578699713776</v>
       </c>
       <c r="N11" t="n">
-        <v>643.6906894334944</v>
+        <v>647.6709866446525</v>
       </c>
       <c r="O11" t="n">
-        <v>607.8188651130689</v>
+        <v>611.577346901625</v>
       </c>
       <c r="P11" t="n">
-        <v>518.7593389875627</v>
+        <v>521.9671162385458</v>
       </c>
       <c r="Q11" t="n">
-        <v>389.5666593168916</v>
+        <v>391.9755664412185</v>
       </c>
       <c r="R11" t="n">
-        <v>226.6080185511425</v>
+        <v>228.0092618486944</v>
       </c>
       <c r="S11" t="n">
-        <v>82.2053246211635</v>
+        <v>82.71364582217377</v>
       </c>
       <c r="T11" t="n">
-        <v>15.79171951855811</v>
+        <v>15.88936849529635</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2885979580775895</v>
+        <v>0.2903825196170661</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.930169008534258</v>
+        <v>1.942104316047396</v>
       </c>
       <c r="H12" t="n">
-        <v>18.64136910873876</v>
+        <v>18.75663905235249</v>
       </c>
       <c r="I12" t="n">
-        <v>66.45538033769266</v>
+        <v>66.86631088145641</v>
       </c>
       <c r="J12" t="n">
-        <v>182.3586430387564</v>
+        <v>183.4862678595481</v>
       </c>
       <c r="K12" t="n">
-        <v>311.6799666105517</v>
+        <v>313.6072570347237</v>
       </c>
       <c r="L12" t="n">
-        <v>419.0921788047739</v>
+        <v>421.6836586224841</v>
       </c>
       <c r="M12" t="n">
-        <v>489.0608053641407</v>
+        <v>492.0849400792021</v>
       </c>
       <c r="N12" t="n">
-        <v>502.004789636285</v>
+        <v>505.1089641986604</v>
       </c>
       <c r="O12" t="n">
-        <v>459.2363079208679</v>
+        <v>462.0760211957154</v>
       </c>
       <c r="P12" t="n">
-        <v>368.5776240945813</v>
+        <v>370.856744351191</v>
       </c>
       <c r="Q12" t="n">
-        <v>246.3843808086888</v>
+        <v>247.9079123431729</v>
       </c>
       <c r="R12" t="n">
-        <v>119.8397916000481</v>
+        <v>120.5808276226621</v>
       </c>
       <c r="S12" t="n">
-        <v>35.8520427681692</v>
+        <v>36.07373587044174</v>
       </c>
       <c r="T12" t="n">
-        <v>7.779935608960449</v>
+        <v>7.828043273892792</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1269848031930433</v>
+        <v>0.1277700207925919</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.61818885817583</v>
+        <v>1.628195019061881</v>
       </c>
       <c r="H13" t="n">
-        <v>14.3871700299633</v>
+        <v>14.47613389675019</v>
       </c>
       <c r="I13" t="n">
-        <v>48.66335220768771</v>
+        <v>48.96426475506094</v>
       </c>
       <c r="J13" t="n">
-        <v>114.4059522730312</v>
+        <v>115.113387847675</v>
       </c>
       <c r="K13" t="n">
-        <v>188.0041237044282</v>
+        <v>189.1666576691894</v>
       </c>
       <c r="L13" t="n">
-        <v>240.5805507873412</v>
+        <v>242.0681940158</v>
       </c>
       <c r="M13" t="n">
-        <v>253.6584589229621</v>
+        <v>255.2269701244001</v>
       </c>
       <c r="N13" t="n">
-        <v>247.627027724307</v>
+        <v>249.1582432351696</v>
       </c>
       <c r="O13" t="n">
-        <v>228.7236396992529</v>
+        <v>230.1379650579467</v>
       </c>
       <c r="P13" t="n">
-        <v>195.7125869924658</v>
+        <v>196.9227866690841</v>
       </c>
       <c r="Q13" t="n">
-        <v>135.5012506605234</v>
+        <v>136.3391301870817</v>
       </c>
       <c r="R13" t="n">
-        <v>72.75965538670594</v>
+        <v>73.20956876618237</v>
       </c>
       <c r="S13" t="n">
-        <v>28.20061855566423</v>
+        <v>28.37499865037841</v>
       </c>
       <c r="T13" t="n">
-        <v>6.914079666751272</v>
+        <v>6.956833263264398</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08826484680959083</v>
+        <v>0.08881063740337541</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.60747447596987</v>
+        <v>3.629781495213327</v>
       </c>
       <c r="H14" t="n">
-        <v>36.94504797702645</v>
+        <v>37.17349973785349</v>
       </c>
       <c r="I14" t="n">
-        <v>139.0771597348286</v>
+        <v>139.9371510942119</v>
       </c>
       <c r="J14" t="n">
-        <v>306.1798868048481</v>
+        <v>308.0731671793624</v>
       </c>
       <c r="K14" t="n">
-        <v>458.8842813726528</v>
+        <v>461.7218178717426</v>
       </c>
       <c r="L14" t="n">
-        <v>569.2865283666158</v>
+        <v>572.8067433058776</v>
       </c>
       <c r="M14" t="n">
-        <v>633.440952578645</v>
+        <v>637.3578699713776</v>
       </c>
       <c r="N14" t="n">
-        <v>643.6906894334944</v>
+        <v>647.6709866446524</v>
       </c>
       <c r="O14" t="n">
-        <v>607.818865113069</v>
+        <v>611.5773469016249</v>
       </c>
       <c r="P14" t="n">
-        <v>518.7593389875627</v>
+        <v>521.9671162385458</v>
       </c>
       <c r="Q14" t="n">
-        <v>389.5666593168916</v>
+        <v>391.9755664412184</v>
       </c>
       <c r="R14" t="n">
-        <v>226.6080185511426</v>
+        <v>228.0092618486943</v>
       </c>
       <c r="S14" t="n">
-        <v>82.20532462116351</v>
+        <v>82.71364582217376</v>
       </c>
       <c r="T14" t="n">
-        <v>15.79171951855812</v>
+        <v>15.88936849529635</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2885979580775896</v>
+        <v>0.2903825196170661</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.930169008534258</v>
+        <v>1.942104316047396</v>
       </c>
       <c r="H15" t="n">
-        <v>18.64136910873876</v>
+        <v>18.75663905235249</v>
       </c>
       <c r="I15" t="n">
-        <v>66.45538033769267</v>
+        <v>66.86631088145641</v>
       </c>
       <c r="J15" t="n">
-        <v>182.3586430387564</v>
+        <v>183.4862678595481</v>
       </c>
       <c r="K15" t="n">
-        <v>311.6799666105517</v>
+        <v>313.6072570347236</v>
       </c>
       <c r="L15" t="n">
-        <v>419.0921788047739</v>
+        <v>421.683658622484</v>
       </c>
       <c r="M15" t="n">
-        <v>489.0608053641407</v>
+        <v>492.084940079202</v>
       </c>
       <c r="N15" t="n">
-        <v>502.004789636285</v>
+        <v>505.1089641986603</v>
       </c>
       <c r="O15" t="n">
-        <v>459.236307920868</v>
+        <v>462.0760211957153</v>
       </c>
       <c r="P15" t="n">
-        <v>368.5776240945813</v>
+        <v>370.856744351191</v>
       </c>
       <c r="Q15" t="n">
-        <v>246.3843808086888</v>
+        <v>247.9079123431729</v>
       </c>
       <c r="R15" t="n">
-        <v>119.8397916000481</v>
+        <v>120.5808276226621</v>
       </c>
       <c r="S15" t="n">
-        <v>35.85204276816921</v>
+        <v>36.07373587044174</v>
       </c>
       <c r="T15" t="n">
-        <v>7.77993560896045</v>
+        <v>7.828043273892791</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1269848031930434</v>
+        <v>0.1277700207925919</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.61818885817583</v>
+        <v>1.628195019061881</v>
       </c>
       <c r="H16" t="n">
-        <v>14.3871700299633</v>
+        <v>14.47613389675019</v>
       </c>
       <c r="I16" t="n">
-        <v>48.66335220768771</v>
+        <v>48.96426475506093</v>
       </c>
       <c r="J16" t="n">
-        <v>114.4059522730312</v>
+        <v>115.113387847675</v>
       </c>
       <c r="K16" t="n">
-        <v>188.0041237044283</v>
+        <v>189.1666576691894</v>
       </c>
       <c r="L16" t="n">
-        <v>240.5805507873412</v>
+        <v>242.0681940158</v>
       </c>
       <c r="M16" t="n">
-        <v>253.6584589229622</v>
+        <v>255.2269701244</v>
       </c>
       <c r="N16" t="n">
-        <v>247.627027724307</v>
+        <v>249.1582432351696</v>
       </c>
       <c r="O16" t="n">
-        <v>228.7236396992529</v>
+        <v>230.1379650579466</v>
       </c>
       <c r="P16" t="n">
-        <v>195.7125869924658</v>
+        <v>196.9227866690841</v>
       </c>
       <c r="Q16" t="n">
-        <v>135.5012506605234</v>
+        <v>136.3391301870817</v>
       </c>
       <c r="R16" t="n">
-        <v>72.75965538670596</v>
+        <v>73.20956876618236</v>
       </c>
       <c r="S16" t="n">
-        <v>28.20061855566423</v>
+        <v>28.3749986503784</v>
       </c>
       <c r="T16" t="n">
-        <v>6.914079666751273</v>
+        <v>6.956833263264397</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08826484680959085</v>
+        <v>0.08881063740337541</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.607474475969871</v>
+        <v>3.629781495213328</v>
       </c>
       <c r="H17" t="n">
-        <v>36.94504797702646</v>
+        <v>37.1734997378535</v>
       </c>
       <c r="I17" t="n">
-        <v>139.0771597348286</v>
+        <v>139.9371510942119</v>
       </c>
       <c r="J17" t="n">
-        <v>306.1798868048481</v>
+        <v>308.0731671793624</v>
       </c>
       <c r="K17" t="n">
-        <v>458.8842813726529</v>
+        <v>461.7218178717427</v>
       </c>
       <c r="L17" t="n">
-        <v>569.286528366616</v>
+        <v>572.8067433058777</v>
       </c>
       <c r="M17" t="n">
-        <v>633.4409525786451</v>
+        <v>637.3578699713777</v>
       </c>
       <c r="N17" t="n">
-        <v>643.6906894334946</v>
+        <v>647.6709866446527</v>
       </c>
       <c r="O17" t="n">
-        <v>607.8188651130691</v>
+        <v>611.577346901625</v>
       </c>
       <c r="P17" t="n">
-        <v>518.7593389875628</v>
+        <v>521.9671162385459</v>
       </c>
       <c r="Q17" t="n">
-        <v>389.5666593168917</v>
+        <v>391.9755664412185</v>
       </c>
       <c r="R17" t="n">
-        <v>226.6080185511426</v>
+        <v>228.0092618486944</v>
       </c>
       <c r="S17" t="n">
-        <v>82.20532462116353</v>
+        <v>82.71364582217379</v>
       </c>
       <c r="T17" t="n">
-        <v>15.79171951855812</v>
+        <v>15.88936849529635</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2885979580775896</v>
+        <v>0.2903825196170662</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.930169008534259</v>
+        <v>1.942104316047397</v>
       </c>
       <c r="H18" t="n">
-        <v>18.64136910873876</v>
+        <v>18.75663905235249</v>
       </c>
       <c r="I18" t="n">
-        <v>66.45538033769269</v>
+        <v>66.86631088145643</v>
       </c>
       <c r="J18" t="n">
-        <v>182.3586430387565</v>
+        <v>183.4862678595481</v>
       </c>
       <c r="K18" t="n">
-        <v>311.6799666105518</v>
+        <v>313.6072570347237</v>
       </c>
       <c r="L18" t="n">
-        <v>419.0921788047741</v>
+        <v>421.6836586224841</v>
       </c>
       <c r="M18" t="n">
-        <v>489.0608053641408</v>
+        <v>492.0849400792021</v>
       </c>
       <c r="N18" t="n">
-        <v>502.0047896362851</v>
+        <v>505.1089641986604</v>
       </c>
       <c r="O18" t="n">
-        <v>459.2363079208681</v>
+        <v>462.0760211957154</v>
       </c>
       <c r="P18" t="n">
-        <v>368.5776240945814</v>
+        <v>370.856744351191</v>
       </c>
       <c r="Q18" t="n">
-        <v>246.3843808086889</v>
+        <v>247.907912343173</v>
       </c>
       <c r="R18" t="n">
-        <v>119.8397916000481</v>
+        <v>120.5808276226621</v>
       </c>
       <c r="S18" t="n">
-        <v>35.85204276816921</v>
+        <v>36.07373587044175</v>
       </c>
       <c r="T18" t="n">
-        <v>7.779935608960452</v>
+        <v>7.828043273892793</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1269848031930434</v>
+        <v>0.1277700207925919</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.618188858175831</v>
+        <v>1.628195019061881</v>
       </c>
       <c r="H19" t="n">
-        <v>14.38717002996331</v>
+        <v>14.47613389675019</v>
       </c>
       <c r="I19" t="n">
-        <v>48.66335220768772</v>
+        <v>48.96426475506095</v>
       </c>
       <c r="J19" t="n">
-        <v>114.4059522730312</v>
+        <v>115.113387847675</v>
       </c>
       <c r="K19" t="n">
-        <v>188.0041237044283</v>
+        <v>189.1666576691894</v>
       </c>
       <c r="L19" t="n">
-        <v>240.5805507873413</v>
+        <v>242.0681940158001</v>
       </c>
       <c r="M19" t="n">
-        <v>253.6584589229622</v>
+        <v>255.2269701244001</v>
       </c>
       <c r="N19" t="n">
-        <v>247.6270277243071</v>
+        <v>249.1582432351697</v>
       </c>
       <c r="O19" t="n">
-        <v>228.723639699253</v>
+        <v>230.1379650579467</v>
       </c>
       <c r="P19" t="n">
-        <v>195.7125869924658</v>
+        <v>196.9227866690842</v>
       </c>
       <c r="Q19" t="n">
-        <v>135.5012506605234</v>
+        <v>136.3391301870817</v>
       </c>
       <c r="R19" t="n">
-        <v>72.75965538670597</v>
+        <v>73.20956876618237</v>
       </c>
       <c r="S19" t="n">
-        <v>28.20061855566424</v>
+        <v>28.37499865037841</v>
       </c>
       <c r="T19" t="n">
-        <v>6.914079666751275</v>
+        <v>6.956833263264399</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08826484680959087</v>
+        <v>0.08881063740337543</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.607474475969871</v>
+        <v>3.629781495213327</v>
       </c>
       <c r="H20" t="n">
-        <v>36.94504797702646</v>
+        <v>37.17349973785349</v>
       </c>
       <c r="I20" t="n">
-        <v>139.0771597348286</v>
+        <v>139.9371510942119</v>
       </c>
       <c r="J20" t="n">
-        <v>306.1798868048481</v>
+        <v>308.0731671793624</v>
       </c>
       <c r="K20" t="n">
-        <v>458.8842813726529</v>
+        <v>461.7218178717426</v>
       </c>
       <c r="L20" t="n">
-        <v>569.286528366616</v>
+        <v>572.8067433058776</v>
       </c>
       <c r="M20" t="n">
-        <v>633.4409525786451</v>
+        <v>637.3578699713776</v>
       </c>
       <c r="N20" t="n">
-        <v>643.6906894334946</v>
+        <v>647.6709866446524</v>
       </c>
       <c r="O20" t="n">
-        <v>607.8188651130691</v>
+        <v>611.5773469016249</v>
       </c>
       <c r="P20" t="n">
-        <v>518.7593389875628</v>
+        <v>521.9671162385458</v>
       </c>
       <c r="Q20" t="n">
-        <v>389.5666593168917</v>
+        <v>391.9755664412184</v>
       </c>
       <c r="R20" t="n">
-        <v>226.6080185511426</v>
+        <v>228.0092618486943</v>
       </c>
       <c r="S20" t="n">
-        <v>82.20532462116353</v>
+        <v>82.71364582217376</v>
       </c>
       <c r="T20" t="n">
-        <v>15.79171951855812</v>
+        <v>15.88936849529635</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2885979580775896</v>
+        <v>0.2903825196170661</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.930169008534259</v>
+        <v>1.942104316047396</v>
       </c>
       <c r="H21" t="n">
-        <v>18.64136910873876</v>
+        <v>18.75663905235249</v>
       </c>
       <c r="I21" t="n">
-        <v>66.45538033769269</v>
+        <v>66.86631088145641</v>
       </c>
       <c r="J21" t="n">
-        <v>182.3586430387565</v>
+        <v>183.4862678595481</v>
       </c>
       <c r="K21" t="n">
-        <v>311.6799666105518</v>
+        <v>313.6072570347236</v>
       </c>
       <c r="L21" t="n">
-        <v>419.0921788047741</v>
+        <v>421.683658622484</v>
       </c>
       <c r="M21" t="n">
-        <v>489.0608053641408</v>
+        <v>492.084940079202</v>
       </c>
       <c r="N21" t="n">
-        <v>502.0047896362851</v>
+        <v>505.1089641986603</v>
       </c>
       <c r="O21" t="n">
-        <v>459.2363079208681</v>
+        <v>462.0760211957153</v>
       </c>
       <c r="P21" t="n">
-        <v>368.5776240945814</v>
+        <v>370.856744351191</v>
       </c>
       <c r="Q21" t="n">
-        <v>246.3843808086889</v>
+        <v>247.9079123431729</v>
       </c>
       <c r="R21" t="n">
-        <v>119.8397916000481</v>
+        <v>120.5808276226621</v>
       </c>
       <c r="S21" t="n">
-        <v>35.85204276816921</v>
+        <v>36.07373587044174</v>
       </c>
       <c r="T21" t="n">
-        <v>7.779935608960452</v>
+        <v>7.828043273892791</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1269848031930434</v>
+        <v>0.1277700207925919</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.618188858175831</v>
+        <v>1.628195019061881</v>
       </c>
       <c r="H22" t="n">
-        <v>14.38717002996331</v>
+        <v>14.47613389675019</v>
       </c>
       <c r="I22" t="n">
-        <v>48.66335220768772</v>
+        <v>48.96426475506093</v>
       </c>
       <c r="J22" t="n">
-        <v>114.4059522730312</v>
+        <v>115.113387847675</v>
       </c>
       <c r="K22" t="n">
-        <v>188.0041237044283</v>
+        <v>189.1666576691894</v>
       </c>
       <c r="L22" t="n">
-        <v>240.5805507873413</v>
+        <v>242.0681940158</v>
       </c>
       <c r="M22" t="n">
-        <v>253.6584589229622</v>
+        <v>255.2269701244</v>
       </c>
       <c r="N22" t="n">
-        <v>247.6270277243071</v>
+        <v>249.1582432351696</v>
       </c>
       <c r="O22" t="n">
-        <v>228.723639699253</v>
+        <v>230.1379650579466</v>
       </c>
       <c r="P22" t="n">
-        <v>195.7125869924658</v>
+        <v>196.9227866690841</v>
       </c>
       <c r="Q22" t="n">
-        <v>135.5012506605234</v>
+        <v>136.3391301870817</v>
       </c>
       <c r="R22" t="n">
-        <v>72.75965538670597</v>
+        <v>73.20956876618236</v>
       </c>
       <c r="S22" t="n">
-        <v>28.20061855566424</v>
+        <v>28.3749986503784</v>
       </c>
       <c r="T22" t="n">
-        <v>6.914079666751275</v>
+        <v>6.956833263264397</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08826484680959087</v>
+        <v>0.08881063740337541</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H23" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I23" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J23" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K23" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L23" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M23" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N23" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O23" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P23" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q23" t="n">
         <v>405.5015080147052</v>
@@ -32736,13 +32736,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S23" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T23" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H24" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I24" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J24" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K24" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L24" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M24" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N24" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O24" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P24" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q24" t="n">
         <v>256.4624964168761</v>
@@ -32815,10 +32815,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S24" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T24" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U24" t="n">
         <v>0.1321789941675764</v>
@@ -32864,19 +32864,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I25" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J25" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K25" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L25" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M25" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N25" t="n">
         <v>257.7559726067959</v>
@@ -32891,16 +32891,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R25" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S25" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T25" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H44" t="n">
         <v>38.45624955336179</v>
@@ -34374,16 +34374,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L44" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N44" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P44" t="n">
         <v>539.9786897190645</v>
@@ -34392,10 +34392,10 @@
         <v>405.5015080147052</v>
       </c>
       <c r="R44" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T44" t="n">
         <v>16.4376645838976</v>
@@ -34444,7 +34444,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J45" t="n">
         <v>189.8178475575841</v>
@@ -34456,16 +34456,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O45" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q45" t="n">
         <v>256.4624964168761</v>
@@ -34523,7 +34523,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I46" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J46" t="n">
         <v>119.0856174753787</v>
@@ -34550,7 +34550,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S46" t="n">
         <v>29.35413767523479</v>
@@ -34559,7 +34559,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>125.1339822781617</v>
+        <v>127.0272626526761</v>
       </c>
       <c r="K11" t="n">
-        <v>238.7944303276722</v>
+        <v>241.6319668267621</v>
       </c>
       <c r="L11" t="n">
-        <v>333.5201133966286</v>
+        <v>337.0403283358904</v>
       </c>
       <c r="M11" t="n">
-        <v>403.0947193513722</v>
+        <v>407.0116367441049</v>
       </c>
       <c r="N11" t="n">
-        <v>414.2776258369035</v>
+        <v>418.2579230480616</v>
       </c>
       <c r="O11" t="n">
-        <v>377.7206536913822</v>
+        <v>381.4791354799382</v>
       </c>
       <c r="P11" t="n">
-        <v>287.5263432322932</v>
+        <v>290.7341204832763</v>
       </c>
       <c r="Q11" t="n">
-        <v>167.2609694424421</v>
+        <v>169.669876566769</v>
       </c>
       <c r="R11" t="n">
-        <v>11.02248073701043</v>
+        <v>12.42372403456224</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>55.52101637208969</v>
+        <v>182.7396765332903</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8385276361927</v>
+        <v>321.3233208424979</v>
       </c>
       <c r="L12" t="n">
-        <v>595.604031916053</v>
+        <v>283.1292788426099</v>
       </c>
       <c r="M12" t="n">
-        <v>346.9267714421223</v>
+        <v>349.9509061571837</v>
       </c>
       <c r="N12" t="n">
-        <v>370.6630775529517</v>
+        <v>373.7672521153271</v>
       </c>
       <c r="O12" t="n">
-        <v>316.6400634764235</v>
+        <v>319.4797767512709</v>
       </c>
       <c r="P12" t="n">
-        <v>234.603216680251</v>
+        <v>236.8823369368608</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.5546132177827</v>
+        <v>318.0034259930005</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.0467721563584</v>
+        <v>21.7542077310022</v>
       </c>
       <c r="K13" t="n">
-        <v>165.7346318785454</v>
+        <v>166.8971658433065</v>
       </c>
       <c r="L13" t="n">
-        <v>268.1705760476573</v>
+        <v>269.6582192761161</v>
       </c>
       <c r="M13" t="n">
-        <v>293.2423358848027</v>
+        <v>294.8108470862406</v>
       </c>
       <c r="N13" t="n">
-        <v>291.7592001035356</v>
+        <v>293.2904156143982</v>
       </c>
       <c r="O13" t="n">
-        <v>253.3087676132926</v>
+        <v>254.7230929719863</v>
       </c>
       <c r="P13" t="n">
-        <v>192.9911462573593</v>
+        <v>194.2013459339776</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.33920740882901</v>
+        <v>50.17708693538729</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>125.1339822781618</v>
+        <v>127.0272626526761</v>
       </c>
       <c r="K14" t="n">
-        <v>238.7944303276723</v>
+        <v>241.631966826762</v>
       </c>
       <c r="L14" t="n">
-        <v>333.5201133966286</v>
+        <v>337.0403283358904</v>
       </c>
       <c r="M14" t="n">
-        <v>403.0947193513723</v>
+        <v>407.0116367441049</v>
       </c>
       <c r="N14" t="n">
-        <v>414.2776258369035</v>
+        <v>418.2579230480615</v>
       </c>
       <c r="O14" t="n">
-        <v>377.7206536913823</v>
+        <v>381.4791354799381</v>
       </c>
       <c r="P14" t="n">
-        <v>287.5263432322932</v>
+        <v>290.7341204832763</v>
       </c>
       <c r="Q14" t="n">
-        <v>167.2609694424421</v>
+        <v>169.6698765667689</v>
       </c>
       <c r="R14" t="n">
-        <v>11.02248073701045</v>
+        <v>12.42372403456221</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>181.6120517124986</v>
+        <v>182.7396765332902</v>
       </c>
       <c r="K15" t="n">
-        <v>291.2064864987991</v>
+        <v>440.2310550729432</v>
       </c>
       <c r="L15" t="n">
-        <v>280.5377990248998</v>
+        <v>283.1292788426098</v>
       </c>
       <c r="M15" t="n">
-        <v>346.9267714421224</v>
+        <v>349.9509061571837</v>
       </c>
       <c r="N15" t="n">
-        <v>370.6630775529517</v>
+        <v>373.767252115327</v>
       </c>
       <c r="O15" t="n">
-        <v>316.6400634764236</v>
+        <v>319.4797767512709</v>
       </c>
       <c r="P15" t="n">
-        <v>234.6032166802511</v>
+        <v>328.0518904422649</v>
       </c>
       <c r="Q15" t="n">
-        <v>316.4798944585164</v>
+        <v>107.9261382571514</v>
       </c>
       <c r="R15" t="n">
-        <v>19.68195744740498</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>21.04677215635841</v>
+        <v>21.75420773100218</v>
       </c>
       <c r="K16" t="n">
-        <v>165.7346318785454</v>
+        <v>166.8971658433065</v>
       </c>
       <c r="L16" t="n">
-        <v>268.1705760476574</v>
+        <v>269.6582192761161</v>
       </c>
       <c r="M16" t="n">
-        <v>293.2423358848027</v>
+        <v>294.8108470862406</v>
       </c>
       <c r="N16" t="n">
-        <v>291.7592001035356</v>
+        <v>293.2904156143982</v>
       </c>
       <c r="O16" t="n">
-        <v>253.3087676132926</v>
+        <v>254.7230929719863</v>
       </c>
       <c r="P16" t="n">
-        <v>192.9911462573593</v>
+        <v>194.2013459339776</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.33920740882901</v>
+        <v>50.17708693538729</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>125.1339822781619</v>
+        <v>127.0272626526761</v>
       </c>
       <c r="K17" t="n">
-        <v>238.7944303276724</v>
+        <v>241.6319668267622</v>
       </c>
       <c r="L17" t="n">
-        <v>333.5201133966288</v>
+        <v>337.0403283358905</v>
       </c>
       <c r="M17" t="n">
-        <v>403.0947193513724</v>
+        <v>407.011636744105</v>
       </c>
       <c r="N17" t="n">
-        <v>414.2776258369037</v>
+        <v>418.2579230480617</v>
       </c>
       <c r="O17" t="n">
-        <v>377.7206536913824</v>
+        <v>381.4791354799382</v>
       </c>
       <c r="P17" t="n">
-        <v>287.5263432322933</v>
+        <v>290.7341204832764</v>
       </c>
       <c r="Q17" t="n">
-        <v>167.2609694424422</v>
+        <v>169.669876566769</v>
       </c>
       <c r="R17" t="n">
-        <v>11.02248073701051</v>
+        <v>12.42372403456227</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>181.6120517124986</v>
+        <v>56.64864119288146</v>
       </c>
       <c r="K18" t="n">
-        <v>291.2064864987979</v>
+        <v>175.7658180603647</v>
       </c>
       <c r="L18" t="n">
-        <v>280.5377990248999</v>
+        <v>283.1292788426099</v>
       </c>
       <c r="M18" t="n">
-        <v>346.9267714421225</v>
+        <v>349.9509061571838</v>
       </c>
       <c r="N18" t="n">
-        <v>370.6630775529518</v>
+        <v>373.7672521153271</v>
       </c>
       <c r="O18" t="n">
-        <v>316.6400634764237</v>
+        <v>319.479776751271</v>
       </c>
       <c r="P18" t="n">
-        <v>234.6032166802512</v>
+        <v>488.1078815893835</v>
       </c>
       <c r="Q18" t="n">
-        <v>316.4798944585165</v>
+        <v>318.0034259930005</v>
       </c>
       <c r="R18" t="n">
-        <v>19.68195744740501</v>
+        <v>20.42299347001895</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>21.04677215635846</v>
+        <v>21.75420773100221</v>
       </c>
       <c r="K19" t="n">
-        <v>165.7346318785454</v>
+        <v>166.8971658433066</v>
       </c>
       <c r="L19" t="n">
-        <v>268.1705760476574</v>
+        <v>269.6582192761162</v>
       </c>
       <c r="M19" t="n">
-        <v>293.2423358848029</v>
+        <v>294.8108470862407</v>
       </c>
       <c r="N19" t="n">
-        <v>291.7592001035356</v>
+        <v>293.2904156143983</v>
       </c>
       <c r="O19" t="n">
-        <v>253.3087676132926</v>
+        <v>254.7230929719864</v>
       </c>
       <c r="P19" t="n">
-        <v>192.9911462573593</v>
+        <v>194.2013459339776</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.33920740882904</v>
+        <v>50.17708693538732</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>125.1339822781619</v>
+        <v>127.0272626526761</v>
       </c>
       <c r="K20" t="n">
-        <v>238.7944303276724</v>
+        <v>241.631966826762</v>
       </c>
       <c r="L20" t="n">
-        <v>333.5201133966288</v>
+        <v>337.0403283358904</v>
       </c>
       <c r="M20" t="n">
-        <v>403.0947193513724</v>
+        <v>407.0116367441049</v>
       </c>
       <c r="N20" t="n">
-        <v>414.2776258369037</v>
+        <v>418.2579230480615</v>
       </c>
       <c r="O20" t="n">
-        <v>377.7206536913824</v>
+        <v>381.4791354799381</v>
       </c>
       <c r="P20" t="n">
-        <v>287.5263432322933</v>
+        <v>290.7341204832763</v>
       </c>
       <c r="Q20" t="n">
-        <v>167.2609694424422</v>
+        <v>169.6698765667689</v>
       </c>
       <c r="R20" t="n">
-        <v>11.02248073701051</v>
+        <v>12.42372403456221</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>55.52101637208978</v>
+        <v>56.6486411928814</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8385276361928</v>
+        <v>440.2310550729432</v>
       </c>
       <c r="L21" t="n">
-        <v>415.6113123238262</v>
+        <v>283.1292788426098</v>
       </c>
       <c r="M21" t="n">
-        <v>346.9267714421225</v>
+        <v>349.9509061571837</v>
       </c>
       <c r="N21" t="n">
-        <v>370.6630775529518</v>
+        <v>373.767252115327</v>
       </c>
       <c r="O21" t="n">
-        <v>316.6400634764237</v>
+        <v>319.4797767512709</v>
       </c>
       <c r="P21" t="n">
-        <v>553.0659853201884</v>
+        <v>454.1429257826736</v>
       </c>
       <c r="Q21" t="n">
-        <v>106.4026067226674</v>
+        <v>107.9261382571514</v>
       </c>
       <c r="R21" t="n">
-        <v>19.68195744740501</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>21.04677215635846</v>
+        <v>21.75420773100218</v>
       </c>
       <c r="K22" t="n">
-        <v>165.7346318785454</v>
+        <v>166.8971658433065</v>
       </c>
       <c r="L22" t="n">
-        <v>268.1705760476574</v>
+        <v>269.6582192761161</v>
       </c>
       <c r="M22" t="n">
-        <v>293.2423358848029</v>
+        <v>294.8108470862406</v>
       </c>
       <c r="N22" t="n">
-        <v>291.7592001035356</v>
+        <v>293.2904156143982</v>
       </c>
       <c r="O22" t="n">
-        <v>253.3087676132926</v>
+        <v>254.7230929719863</v>
       </c>
       <c r="P22" t="n">
-        <v>192.9911462573593</v>
+        <v>194.2013459339776</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.33920740882904</v>
+        <v>50.17708693538729</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L23" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N23" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O23" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P23" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q23" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
-        <v>397.6203974676405</v>
+        <v>271.5293621272322</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M24" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N24" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O24" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
         <v>568.1422977634695</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K25" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L25" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M25" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N25" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O25" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P25" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K27" t="n">
-        <v>373.0365088578702</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M27" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N27" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O27" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P27" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.4807223308546</v>
+        <v>122.9351598697847</v>
       </c>
       <c r="R27" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R29" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N30" t="n">
-        <v>602.2300008170303</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O30" t="n">
         <v>335.424681996123</v>
@@ -36931,10 +36931,10 @@
         <v>568.1422977634695</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.9556134883069083</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K33" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215498</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378502</v>
@@ -37159,7 +37159,7 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N33" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O33" t="n">
         <v>335.424681996123</v>
@@ -37168,10 +37168,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q33" t="n">
-        <v>270.4976243473741</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L36" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489562</v>
       </c>
       <c r="M36" t="n">
         <v>366.9313322820405</v>
@@ -37402,10 +37402,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>443.0068759113678</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>316.0205096502335</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
@@ -37633,7 +37633,7 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N39" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O39" t="n">
         <v>335.424681996123</v>
@@ -37642,7 +37642,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
         <v>24.58388860977092</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434848</v>
+        <v>271.5293621272322</v>
       </c>
       <c r="L42" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
         <v>366.9313322820405</v>
@@ -37876,13 +37876,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P42" t="n">
-        <v>411.6868389156661</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q42" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N44" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P44" t="n">
         <v>308.745693963795</v>
@@ -38040,7 +38040,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K45" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L45" t="n">
-        <v>382.6222265215976</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N45" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O45" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
-        <v>568.1422977634695</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q45" t="n">
         <v>116.4807223308546</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K46" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L46" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M46" t="n">
         <v>303.6179906468033</v>
@@ -38189,13 +38189,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O46" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P46" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
